--- a/Result_9010.xlsx
+++ b/Result_9010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Videos\binary-Gray-Wolf-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC03EEE-07E3-4CD0-BE63-FD1B88CF24C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3AB809-64F0-45E2-99D2-AF0EEFC77653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -494,58 +494,58 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.96858695652173898</v>
+        <v>0.970031055900621</v>
       </c>
       <c r="C2">
-        <v>0.941116854636591</v>
+        <v>0.940433897243107</v>
       </c>
       <c r="D2">
-        <v>0.95516120507399505</v>
+        <v>0.95495507399577095</v>
       </c>
       <c r="E2">
-        <v>0.83055000000000001</v>
+        <v>0.80264999999999997</v>
       </c>
       <c r="F2">
-        <v>0.73614999999999997</v>
+        <v>0.73214999999999997</v>
       </c>
       <c r="G2">
-        <v>0.813888888888888</v>
+        <v>0.79907407407407405</v>
       </c>
       <c r="H2">
-        <v>0.87305555555555503</v>
+        <v>0.86796428571428497</v>
       </c>
       <c r="I2">
-        <v>0.96738249412225696</v>
+        <v>0.96725666144200595</v>
       </c>
       <c r="J2">
-        <v>0.81890476190476102</v>
+        <v>0.81126190476190396</v>
       </c>
       <c r="K2">
-        <v>0.95914999999999995</v>
+        <v>0.93855</v>
       </c>
       <c r="L2">
-        <v>0.88732142857142804</v>
+        <v>0.87589285714285703</v>
       </c>
       <c r="M2">
-        <v>0.85216666666666596</v>
+        <v>0.83610714285714205</v>
       </c>
       <c r="N2">
-        <v>0.81591880341880296</v>
+        <v>0.80551994301994301</v>
       </c>
       <c r="O2">
-        <v>0.81644901315789398</v>
+        <v>0.82077631578947297</v>
       </c>
       <c r="P2">
         <v>0.94299999999999995</v>
       </c>
       <c r="Q2">
-        <v>0.82715999999999901</v>
+        <v>0.82850999999999997</v>
       </c>
       <c r="R2">
-        <v>0.93875816993464001</v>
+        <v>0.92880718954248298</v>
       </c>
       <c r="S2">
-        <v>0.93472727272727196</v>
+        <v>0.93777272727272698</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -553,58 +553,58 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.67777777777777704</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="C3">
-        <v>0.60666666666666602</v>
+        <v>0.62666666666666604</v>
       </c>
       <c r="D3">
-        <v>0.51875000000000004</v>
+        <v>0.52812499999999996</v>
       </c>
       <c r="E3">
-        <v>0.71538461538461495</v>
+        <v>0.72692307692307601</v>
       </c>
       <c r="F3">
-        <v>0.54230769230769205</v>
+        <v>0.60769230769230698</v>
       </c>
       <c r="G3">
-        <v>0.54615384615384599</v>
+        <v>0.60769230769230698</v>
       </c>
       <c r="H3">
-        <v>0.52205882352941102</v>
+        <v>0.57058823529411695</v>
       </c>
       <c r="I3">
+        <v>0.78888888888888797</v>
+      </c>
+      <c r="J3">
+        <v>0.66388888888888797</v>
+      </c>
+      <c r="K3">
+        <v>0.69615384615384601</v>
+      </c>
+      <c r="L3">
+        <v>0.70292307692307598</v>
+      </c>
+      <c r="M3">
+        <v>0.66916666666666602</v>
+      </c>
+      <c r="N3">
+        <v>0.62272727272727202</v>
+      </c>
+      <c r="O3">
+        <v>0.89444444444444404</v>
+      </c>
+      <c r="P3">
+        <v>0.53125</v>
+      </c>
+      <c r="Q3">
         <v>0.76249999999999996</v>
       </c>
-      <c r="J3">
-        <v>0.61388888888888804</v>
-      </c>
-      <c r="K3">
-        <v>0.64230769230769202</v>
-      </c>
-      <c r="L3">
-        <v>0.65246153846153798</v>
-      </c>
-      <c r="M3">
-        <v>0.663333333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.58863636363636296</v>
-      </c>
-      <c r="O3">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="P3">
-        <v>0.53437500000000004</v>
-      </c>
-      <c r="Q3">
-        <v>0.73250000000000004</v>
-      </c>
       <c r="R3">
-        <v>0.63076923076922997</v>
+        <v>0.61153846153846103</v>
       </c>
       <c r="S3">
-        <v>0.63124999999999998</v>
+        <v>0.68437499999999996</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -612,58 +612,58 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>25.906307792663501</v>
+        <v>24.5051861882209</v>
       </c>
       <c r="C4">
-        <v>26.756515276432001</v>
+        <v>25.059368085861198</v>
       </c>
       <c r="D4">
-        <v>19.533634161949099</v>
+        <v>17.683809494972198</v>
       </c>
       <c r="E4">
-        <v>40.657536959648098</v>
+        <v>38.346161067485802</v>
       </c>
       <c r="F4">
-        <v>37.311272346973396</v>
+        <v>36.252544844150499</v>
       </c>
       <c r="G4">
-        <v>15.1465666532516</v>
+        <v>14.2535111308097</v>
       </c>
       <c r="H4">
-        <v>20.2492468476295</v>
+        <v>19.273100578784899</v>
       </c>
       <c r="I4">
-        <v>334.76094226837102</v>
+        <v>333.02951055765101</v>
       </c>
       <c r="J4">
-        <v>11.6161037445068</v>
+        <v>10.8928471207618</v>
       </c>
       <c r="K4">
-        <v>38.6978494644165</v>
+        <v>37.846791970729797</v>
       </c>
       <c r="L4">
-        <v>14.580796551704401</v>
+        <v>14.0937104225158</v>
       </c>
       <c r="M4">
-        <v>16.455314838886199</v>
+        <v>15.478469371795599</v>
       </c>
       <c r="N4">
-        <v>15.3427671313285</v>
+        <v>14.4230962872505</v>
       </c>
       <c r="O4">
-        <v>35.930748426914199</v>
+        <v>34.261385583877498</v>
       </c>
       <c r="P4">
-        <v>15.826218354701901</v>
+        <v>14.6864243745803</v>
       </c>
       <c r="Q4">
-        <v>873.51834642887104</v>
+        <v>863.66473081111894</v>
       </c>
       <c r="R4">
-        <v>12.5765624523162</v>
+        <v>11.6565384984016</v>
       </c>
       <c r="S4">
-        <v>10.3424063324928</v>
+        <v>9.5251595377922005</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -671,58 +671,58 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>3.0350231193926699E-2</v>
+        <v>3.11855693581779E-2</v>
       </c>
       <c r="C5">
-        <v>5.7025924185463601E-2</v>
+        <v>5.77531798245614E-2</v>
       </c>
       <c r="D5">
-        <v>4.1616569767441797E-2</v>
+        <v>4.0365552325581297E-2</v>
       </c>
       <c r="E5">
-        <v>0.15223834615384599</v>
+        <v>0.17769773076923001</v>
       </c>
       <c r="F5">
-        <v>0.246438576923076</v>
+        <v>0.249369423076923</v>
       </c>
       <c r="G5">
-        <v>0.16331153846153801</v>
+        <v>0.182076923076923</v>
       </c>
       <c r="H5">
-        <v>0.118088445378151</v>
+        <v>0.123500168067226</v>
       </c>
       <c r="I5">
-        <v>3.4945721982758603E-2</v>
+        <v>3.5873894276819897E-2</v>
       </c>
       <c r="J5">
-        <v>0.151904603174603</v>
+        <v>0.16020674603174501</v>
       </c>
       <c r="K5">
-        <v>3.4935076923076902E-2</v>
+        <v>5.1313538461538397E-2</v>
       </c>
       <c r="L5">
-        <v>9.8276401098900998E-2</v>
+        <v>0.103023873626373</v>
       </c>
       <c r="M5">
-        <v>0.12971154761904699</v>
+        <v>0.13839702380952301</v>
       </c>
       <c r="N5">
-        <v>0.158172902097902</v>
+        <v>0.160523426573426</v>
       </c>
       <c r="O5">
-        <v>0.17648794956140301</v>
+        <v>0.17232429641812799</v>
       </c>
       <c r="P5">
-        <v>5.0388749999999899E-2</v>
+        <v>4.98624999999999E-2</v>
       </c>
       <c r="Q5">
-        <v>0.17094229999999999</v>
+        <v>0.17159869999999999</v>
       </c>
       <c r="R5">
-        <v>4.8835633484162901E-2</v>
+        <v>6.2360972850678702E-2</v>
       </c>
       <c r="S5">
-        <v>5.9412499999999903E-2</v>
+        <v>5.9448749999999898E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -730,58 +730,58 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>3.6669841269841297E-2</v>
+        <v>3.5457142857142701E-2</v>
       </c>
       <c r="C6">
-        <v>6.6812343358395906E-2</v>
+        <v>6.7518170426065297E-2</v>
       </c>
       <c r="D6">
-        <v>5.2023255813953298E-2</v>
+        <v>4.8261627906976703E-2</v>
       </c>
       <c r="E6">
-        <v>0.27598230769230703</v>
+        <v>0.29523384615384601</v>
       </c>
       <c r="F6">
-        <v>0.25761384615384603</v>
+        <v>0.25915230769230702</v>
       </c>
       <c r="G6">
-        <v>0.203384615384615</v>
+        <v>0.26725641025641</v>
       </c>
       <c r="H6">
-        <v>0.13277521008403301</v>
+        <v>0.137604201680672</v>
       </c>
       <c r="I6">
-        <v>4.4757806513409902E-2</v>
+        <v>4.2561554118773902E-2</v>
       </c>
       <c r="J6">
-        <v>0.18422698412698399</v>
+        <v>0.190388888888888</v>
       </c>
       <c r="K6">
-        <v>0.14453307692307599</v>
+        <v>0.15124230769230701</v>
       </c>
       <c r="L6">
-        <v>0.11113434065934</v>
+        <v>0.113486813186813</v>
       </c>
       <c r="M6">
-        <v>0.144559523809523</v>
+        <v>0.15057857142857101</v>
       </c>
       <c r="N6">
-        <v>0.18053030303030199</v>
+        <v>0.172742424242424</v>
       </c>
       <c r="O6">
-        <v>0.20829232456140301</v>
+        <v>0.20094331140350799</v>
       </c>
       <c r="P6">
-        <v>5.9224999999999903E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q6">
-        <v>0.17821799999999899</v>
+        <v>0.183532</v>
       </c>
       <c r="R6">
-        <v>0.104585972850678</v>
+        <v>0.26141855203619901</v>
       </c>
       <c r="S6">
-        <v>0.103174999999999</v>
+        <v>0.10289999999999901</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -789,58 +789,58 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>2.7680262249827298E-2</v>
+        <v>2.7921946169772199E-2</v>
       </c>
       <c r="C7">
-        <v>4.7777255639097703E-2</v>
+        <v>4.6777255639097702E-2</v>
       </c>
       <c r="D7">
-        <v>3.3781976744185899E-2</v>
+        <v>3.2156976744185897E-2</v>
       </c>
       <c r="E7">
-        <v>4.6153846153846097E-3</v>
+        <v>6.9513846153846204E-2</v>
       </c>
       <c r="F7">
-        <v>0.232863846153846</v>
+        <v>0.241887692307692</v>
       </c>
       <c r="G7">
-        <v>0.13738461538461499</v>
+        <v>0.130051282051282</v>
       </c>
       <c r="H7">
-        <v>9.9739075630252097E-2</v>
+        <v>0.10584747899159599</v>
       </c>
       <c r="I7">
-        <v>2.6150909961685599E-2</v>
+        <v>2.6770629789271898E-2</v>
       </c>
       <c r="J7">
-        <v>0.105582539682539</v>
+        <v>0.112738095238095</v>
       </c>
       <c r="K7">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L7">
-        <v>8.2971703296703198E-2</v>
+        <v>8.8859890109889997E-2</v>
       </c>
       <c r="M7">
-        <v>0.114566666666666</v>
+        <v>0.11660714285714199</v>
       </c>
       <c r="N7">
-        <v>0.14088578088577999</v>
+        <v>0.140714452214452</v>
       </c>
       <c r="O7">
-        <v>0.15577532894736801</v>
+        <v>0.15364769736841999</v>
       </c>
       <c r="P7">
-        <v>3.8800000000000001E-2</v>
+        <v>4.0050000000000002E-2</v>
       </c>
       <c r="Q7">
-        <v>0.163024</v>
+        <v>0.16366</v>
       </c>
       <c r="R7">
-        <v>3.8384615384615399E-2</v>
+        <v>3.2115384615384698E-2</v>
       </c>
       <c r="S7">
-        <v>3.4149999999999903E-2</v>
+        <v>4.2799999999999901E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -848,58 +848,58 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>1.9952384159762399E-3</v>
+        <v>1.84460277722961E-3</v>
       </c>
       <c r="C8">
-        <v>6.1178637584029102E-3</v>
+        <v>7.0804012216451303E-3</v>
       </c>
       <c r="D8">
-        <v>5.5760518192190999E-3</v>
+        <v>4.8871493429687701E-3</v>
       </c>
       <c r="E8">
-        <v>8.8862393029822698E-2</v>
+        <v>5.84222992329234E-2</v>
       </c>
       <c r="F8">
-        <v>6.4766518821124603E-3</v>
+        <v>6.3055981883809497E-3</v>
       </c>
       <c r="G8">
-        <v>2.0221581994727601E-2</v>
+        <v>3.7742418285889603E-2</v>
       </c>
       <c r="H8">
-        <v>9.5040763524603597E-3</v>
+        <v>7.73233999844577E-3</v>
       </c>
       <c r="I8">
-        <v>4.5660230482161002E-3</v>
+        <v>3.9790275287325599E-3</v>
       </c>
       <c r="J8">
-        <v>1.9567814474041299E-2</v>
+        <v>2.1229744490099001E-2</v>
       </c>
       <c r="K8">
-        <v>3.23818644477495E-2</v>
+        <v>3.94933615037249E-2</v>
       </c>
       <c r="L8">
-        <v>8.3473951159654704E-3</v>
+        <v>6.8765510534221398E-3</v>
       </c>
       <c r="M8">
-        <v>8.4426603821444197E-3</v>
+        <v>1.01382259680615E-2</v>
       </c>
       <c r="N8">
-        <v>1.2123611030294501E-2</v>
+        <v>8.5345913669206408E-3</v>
       </c>
       <c r="O8">
-        <v>2.0155341263555698E-2</v>
+        <v>1.7249458774147401E-2</v>
       </c>
       <c r="P8">
-        <v>5.4945625110194097E-3</v>
+        <v>5.2308012053604502E-3</v>
       </c>
       <c r="Q8">
-        <v>4.5891325661828099E-3</v>
+        <v>4.4964123598709299E-3</v>
       </c>
       <c r="R8">
-        <v>1.76740229703462E-2</v>
+        <v>4.9712858167384702E-2</v>
       </c>
       <c r="S8">
-        <v>2.06840963967488E-2</v>
+        <v>1.7115609606073001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -980,58 +980,58 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.2952242926155798E-2</v>
+        <v>3.1820634920634798E-2</v>
       </c>
       <c r="C2">
-        <v>4.7777255639097703E-2</v>
+        <v>5.4693609022556502E-2</v>
       </c>
       <c r="D2">
-        <v>4.5491279069767403E-2</v>
+        <v>3.5354651162790698E-2</v>
       </c>
       <c r="E2">
-        <v>6.3746153846153796E-3</v>
+        <v>0.16235307692307599</v>
       </c>
       <c r="F2">
-        <v>0.24177384615384601</v>
+        <v>0.242763846153846</v>
       </c>
       <c r="G2">
-        <v>0.16671794871794801</v>
+        <v>0.188717948717948</v>
       </c>
       <c r="H2">
-        <v>0.13120168067226801</v>
+        <v>0.10584747899159599</v>
       </c>
       <c r="I2">
-        <v>3.2309722222221997E-2</v>
+        <v>3.0636458333333401E-2</v>
       </c>
       <c r="J2">
-        <v>0.174579365079365</v>
+        <v>0.17094285714285701</v>
       </c>
       <c r="K2">
-        <v>5.3846153846153801E-3</v>
+        <v>1.6053846153846099E-2</v>
       </c>
       <c r="L2">
-        <v>9.5008241758241602E-2</v>
+        <v>0.111165109890109</v>
       </c>
       <c r="M2">
-        <v>0.13098571428571401</v>
+        <v>0.14569761904761899</v>
       </c>
       <c r="N2">
-        <v>0.17172377622377599</v>
+        <v>0.150428904428904</v>
       </c>
       <c r="O2">
-        <v>0.156708881578947</v>
+        <v>0.18550014619883001</v>
       </c>
       <c r="P2">
-        <v>5.1650000000000001E-2</v>
+        <v>5.1199999999999898E-2</v>
       </c>
       <c r="Q2">
-        <v>0.171204</v>
+        <v>0.179727999999999</v>
       </c>
       <c r="R2">
-        <v>9.4355203619909497E-2</v>
+        <v>3.9923076923076797E-2</v>
       </c>
       <c r="S2">
-        <v>3.4149999999999903E-2</v>
+        <v>4.2799999999999901E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1039,58 +1039,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.7942443064182001E-2</v>
+        <v>3.3234920634920499E-2</v>
       </c>
       <c r="C3">
-        <v>6.4843358395989995E-2</v>
+        <v>5.1995927318295602E-2</v>
       </c>
       <c r="D3">
-        <v>3.4511627906976698E-2</v>
+        <v>4.8261627906976703E-2</v>
       </c>
       <c r="E3">
-        <v>0.191832307692307</v>
+        <v>0.21064230769230699</v>
       </c>
       <c r="F3">
-        <v>0.25222230769230702</v>
+        <v>0.242436153846153</v>
       </c>
       <c r="G3">
-        <v>0.20048717948717901</v>
+        <v>0.203384615384615</v>
       </c>
       <c r="H3">
-        <v>0.100190336134453</v>
+        <v>0.119063445378151</v>
       </c>
       <c r="I3">
-        <v>3.9707974137930903E-2</v>
+        <v>4.2561554118773902E-2</v>
       </c>
       <c r="J3">
-        <v>0.15280952380952301</v>
+        <v>0.14629365079365</v>
       </c>
       <c r="K3">
-        <v>5.3846153846153801E-3</v>
+        <v>7.1821538461538298E-2</v>
       </c>
       <c r="L3">
-        <v>0.10878186813186699</v>
+        <v>0.10973571428571401</v>
       </c>
       <c r="M3">
-        <v>0.12001666666666599</v>
+        <v>0.13960952380952299</v>
       </c>
       <c r="N3">
-        <v>0.16236946386946299</v>
+        <v>0.140714452214452</v>
       </c>
       <c r="O3">
-        <v>0.18858304093567199</v>
+        <v>0.184458040935672</v>
       </c>
       <c r="P3">
-        <v>4.7274999999999803E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="Q3">
-        <v>0.16603599999999899</v>
+        <v>0.16694200000000001</v>
       </c>
       <c r="R3">
-        <v>4.06923076923075E-2</v>
+        <v>3.9153846153845998E-2</v>
       </c>
       <c r="S3">
-        <v>3.44249999999999E-2</v>
+        <v>4.4675000000000097E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1098,58 +1098,58 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.9315734989647801E-2</v>
+        <v>3.0730020703933599E-2</v>
       </c>
       <c r="C4">
-        <v>5.4057957393483701E-2</v>
+        <v>6.7518170426065297E-2</v>
       </c>
       <c r="D4">
-        <v>3.73866279069765E-2</v>
+        <v>4.1366279069767399E-2</v>
       </c>
       <c r="E4">
-        <v>0.15047307692307599</v>
+        <v>0.19579230769230699</v>
       </c>
       <c r="F4">
-        <v>0.25398153846153798</v>
+        <v>0.25046307692307601</v>
       </c>
       <c r="G4">
-        <v>0.15128205128205099</v>
+        <v>0.26725641025641</v>
       </c>
       <c r="H4">
-        <v>0.12581848739495799</v>
+        <v>0.13255966386554599</v>
       </c>
       <c r="I4">
-        <v>3.6893941570881002E-2</v>
+        <v>3.9894839559387101E-2</v>
       </c>
       <c r="J4">
-        <v>0.105582539682539</v>
+        <v>0.112738095238095</v>
       </c>
       <c r="K4">
-        <v>5.3846153846153801E-3</v>
+        <v>5.9172307692307601E-2</v>
       </c>
       <c r="L4">
-        <v>9.7145329670329503E-2</v>
+        <v>9.5008241758241602E-2</v>
       </c>
       <c r="M4">
-        <v>0.13409047619047601</v>
+        <v>0.13034761904761799</v>
       </c>
       <c r="N4">
-        <v>0.148047785547785</v>
+        <v>0.16268298368298301</v>
       </c>
       <c r="O4">
-        <v>0.15676315789473599</v>
+        <v>0.15774013157894701</v>
       </c>
       <c r="P4">
-        <v>5.1199999999999898E-2</v>
+        <v>4.3975E-2</v>
       </c>
       <c r="Q4">
-        <v>0.17679</v>
+        <v>0.173184</v>
       </c>
       <c r="R4">
-        <v>0.104585972850678</v>
+        <v>5.48846153846154E-2</v>
       </c>
       <c r="S4">
-        <v>5.4574999999999999E-2</v>
+        <v>4.4674999999999902E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1157,58 +1157,58 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.2952242926155798E-2</v>
+        <v>3.2123809523809298E-2</v>
       </c>
       <c r="C5">
-        <v>5.8469611528821901E-2</v>
+        <v>6.6518170426065296E-2</v>
       </c>
       <c r="D5">
-        <v>4.0854651162790703E-2</v>
+        <v>4.25319767441859E-2</v>
       </c>
       <c r="E5">
-        <v>0.179952307692307</v>
+        <v>0.21361230769230699</v>
       </c>
       <c r="F5">
-        <v>0.25112538461538397</v>
+        <v>0.25398153846153798</v>
       </c>
       <c r="G5">
-        <v>0.14761538461538401</v>
+        <v>0.18369230769230699</v>
       </c>
       <c r="H5">
-        <v>0.124210924369747</v>
+        <v>0.12949537815126</v>
       </c>
       <c r="I5">
-        <v>4.4757806513409902E-2</v>
+        <v>3.23920977011493E-2</v>
       </c>
       <c r="J5">
-        <v>0.153449206349206</v>
+        <v>0.15208571428571399</v>
       </c>
       <c r="K5">
-        <v>4.6153846153846097E-3</v>
+        <v>0.15124230769230701</v>
       </c>
       <c r="L5">
-        <v>9.7053021978022097E-2</v>
+        <v>0.100773351648351</v>
       </c>
       <c r="M5">
-        <v>0.140385714285714</v>
+        <v>0.13506190476190399</v>
       </c>
       <c r="N5">
-        <v>0.15859324009324</v>
+        <v>0.15458158508158401</v>
       </c>
       <c r="O5">
-        <v>0.15776184210526301</v>
+        <v>0.15775098684210501</v>
       </c>
       <c r="P5">
-        <v>4.8524999999999999E-2</v>
+        <v>5.3874999999999999E-2</v>
       </c>
       <c r="Q5">
-        <v>0.170788</v>
+        <v>0.17405999999999899</v>
       </c>
       <c r="R5">
-        <v>3.9923076923076999E-2</v>
+        <v>3.9153846153846199E-2</v>
       </c>
       <c r="S5">
-        <v>4.55749999999999E-2</v>
+        <v>0.10289999999999901</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1216,58 +1216,58 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.1053692201518102E-2</v>
+        <v>3.2123809523809298E-2</v>
       </c>
       <c r="C6">
-        <v>5.2592418546365899E-2</v>
+        <v>5.3623433583959997E-2</v>
       </c>
       <c r="D6">
-        <v>3.3991279069767399E-2</v>
+        <v>4.2886627906976602E-2</v>
       </c>
       <c r="E6">
-        <v>0.225271538461538</v>
+        <v>0.23220153846153799</v>
       </c>
       <c r="F6">
-        <v>0.25761384615384603</v>
+        <v>0.257941538461538</v>
       </c>
       <c r="G6">
-        <v>0.15205128205128199</v>
+        <v>0.180025641025641</v>
       </c>
       <c r="H6">
-        <v>0.11521554621848699</v>
+        <v>0.118553781512605</v>
       </c>
       <c r="I6">
-        <v>3.8075035919540097E-2</v>
+        <v>3.61736111111109E-2</v>
       </c>
       <c r="J6">
-        <v>0.16664920634920599</v>
+        <v>0.16883809523809501</v>
       </c>
       <c r="K6">
-        <v>5.3846153846153801E-3</v>
+        <v>4.4543076923076803E-2</v>
       </c>
       <c r="L6">
-        <v>9.4823626373626194E-2</v>
+        <v>0.109397252747252</v>
       </c>
       <c r="M6">
-        <v>0.13539523809523801</v>
+        <v>0.15057857142857101</v>
       </c>
       <c r="N6">
-        <v>0.172460372960373</v>
+        <v>0.156571095571095</v>
       </c>
       <c r="O6">
-        <v>0.19066725146198801</v>
+        <v>0.189766264619883</v>
       </c>
       <c r="P6">
-        <v>5.5125E-2</v>
+        <v>5.3874999999999999E-2</v>
       </c>
       <c r="Q6">
-        <v>0.16416</v>
+        <v>0.171736</v>
       </c>
       <c r="R6">
-        <v>4.06923076923075E-2</v>
+        <v>4.6192307692307699E-2</v>
       </c>
       <c r="S6">
-        <v>5.6724999999999901E-2</v>
+        <v>5.5199999999999902E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1278,55 +1278,55 @@
         <v>3.0730020703933599E-2</v>
       </c>
       <c r="C7">
-        <v>6.6812343358395906E-2</v>
+        <v>5.7399436090225402E-2</v>
       </c>
       <c r="D7">
-        <v>4.5595930232558098E-2</v>
+        <v>3.6866279069767499E-2</v>
       </c>
       <c r="E7">
-        <v>6.4563846153846097E-2</v>
+        <v>0.170273076923076</v>
       </c>
       <c r="F7">
-        <v>0.24474384615384601</v>
+        <v>0.24771384615384601</v>
       </c>
       <c r="G7">
-        <v>0.203384615384615</v>
+        <v>0.215153846153846</v>
       </c>
       <c r="H7">
-        <v>0.117377310924369</v>
+        <v>0.11521554621848699</v>
       </c>
       <c r="I7">
-        <v>2.93107638888889E-2</v>
+        <v>3.5651592432950199E-2</v>
       </c>
       <c r="J7">
-        <v>0.15233809523809499</v>
+        <v>0.17505079365079301</v>
       </c>
       <c r="K7">
-        <v>5.3846153846153801E-3</v>
+        <v>4.7513076923076901E-2</v>
       </c>
       <c r="L7">
-        <v>9.6837637362637202E-2</v>
+        <v>9.7699175824175699E-2</v>
       </c>
       <c r="M7">
-        <v>0.134188095238095</v>
+        <v>0.11660714285714199</v>
       </c>
       <c r="N7">
-        <v>0.16000349650349599</v>
+        <v>0.15056993006993</v>
       </c>
       <c r="O7">
-        <v>0.18546758040935599</v>
+        <v>0.15571019736842101</v>
       </c>
       <c r="P7">
-        <v>4.7274999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q7">
-        <v>0.17025599999999999</v>
+        <v>0.173673999999999</v>
       </c>
       <c r="R7">
-        <v>4.4653846153846197E-2</v>
+        <v>5.0923076923076897E-2</v>
       </c>
       <c r="S7">
-        <v>5.3949999999999901E-2</v>
+        <v>6.5724999999999797E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1334,58 +1334,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.0426846100758902E-2</v>
+        <v>3.2144306418219297E-2</v>
       </c>
       <c r="C8">
-        <v>5.4329260651628901E-2</v>
+        <v>5.1250939849624103E-2</v>
       </c>
       <c r="D8">
-        <v>4.2886627906976803E-2</v>
+        <v>3.9741279069767398E-2</v>
       </c>
       <c r="E8">
-        <v>0.231211538461538</v>
+        <v>0.16532307692307599</v>
       </c>
       <c r="F8">
-        <v>0.24034923076923001</v>
+        <v>0.25915230769230702</v>
       </c>
       <c r="G8">
-        <v>0.13738461538461499</v>
+        <v>0.130051282051282</v>
       </c>
       <c r="H8">
-        <v>9.9739075630252097E-2</v>
+        <v>0.12607857142857101</v>
       </c>
       <c r="I8">
-        <v>3.0229382183907898E-2</v>
+        <v>3.4108596743294903E-2</v>
       </c>
       <c r="J8">
-        <v>0.15932539682539601</v>
+        <v>0.14556984126984099</v>
       </c>
       <c r="K8">
-        <v>4.3553076923077E-2</v>
+        <v>1.9023846153845999E-2</v>
       </c>
       <c r="L8">
-        <v>0.11113434065934</v>
+        <v>0.10970494505494401</v>
       </c>
       <c r="M8">
-        <v>0.114566666666666</v>
+        <v>0.124799999999999</v>
       </c>
       <c r="N8">
-        <v>0.14591608391608299</v>
+        <v>0.166177156177156</v>
       </c>
       <c r="O8">
-        <v>0.15577532894736801</v>
+        <v>0.19382613304093499</v>
       </c>
       <c r="P8">
-        <v>4.9149999999999798E-2</v>
+        <v>5.6375000000000001E-2</v>
       </c>
       <c r="Q8">
-        <v>0.16426399999999999</v>
+        <v>0.17045399999999999</v>
       </c>
       <c r="R8">
-        <v>3.94773755656109E-2</v>
+        <v>5.56538461538462E-2</v>
       </c>
       <c r="S8">
-        <v>5.33249999999999E-2</v>
+        <v>5.4574999999999901E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1393,58 +1393,58 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.9356728778467699E-2</v>
+        <v>3.0447342995169002E-2</v>
       </c>
       <c r="C9">
-        <v>5.7159147869674097E-2</v>
+        <v>4.8203634085212999E-2</v>
       </c>
       <c r="D9">
-        <v>3.9793604651162599E-2</v>
+        <v>3.7023255813953403E-2</v>
       </c>
       <c r="E9">
-        <v>0.197772307692307</v>
+        <v>0.23814153846153799</v>
       </c>
       <c r="F9">
-        <v>0.24067692307692301</v>
+        <v>0.241887692307692</v>
       </c>
       <c r="G9">
-        <v>0.15358974358974301</v>
+        <v>0.15494871794871701</v>
       </c>
       <c r="H9">
-        <v>0.111367647058823</v>
+        <v>0.12660840336134399</v>
       </c>
       <c r="I9">
-        <v>3.4513733237547903E-2</v>
+        <v>3.1349999999999899E-2</v>
       </c>
       <c r="J9">
-        <v>0.13880158730158701</v>
+        <v>0.14565396825396801</v>
       </c>
       <c r="K9">
-        <v>4.2563076923076801E-2</v>
+        <v>8.0731538461538299E-2</v>
       </c>
       <c r="L9">
-        <v>8.3693406593406502E-2</v>
+        <v>9.7145329670329503E-2</v>
       </c>
       <c r="M9">
-        <v>0.13111190476190401</v>
+        <v>0.14453095238095201</v>
       </c>
       <c r="N9">
-        <v>0.143158508158508</v>
+        <v>0.156148018648018</v>
       </c>
       <c r="O9">
         <v>0.15774013157894701</v>
       </c>
       <c r="P9">
-        <v>4.7899999999999797E-2</v>
+        <v>4.8074999999999903E-2</v>
       </c>
       <c r="Q9">
-        <v>0.174371999999999</v>
+        <v>0.17050599999999999</v>
       </c>
       <c r="R9">
-        <v>4.4653846153846197E-2</v>
+        <v>4.14615384615383E-2</v>
       </c>
       <c r="S9">
-        <v>5.4574999999999901E-2</v>
+        <v>6.3849999999999796E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1452,58 +1452,58 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.9315734989647801E-2</v>
+        <v>2.7921946169772199E-2</v>
       </c>
       <c r="C10">
-        <v>5.44223057644109E-2</v>
+        <v>6.6781328320801997E-2</v>
       </c>
       <c r="D10">
-        <v>4.7688953488372203E-2</v>
+        <v>3.8688953488372001E-2</v>
       </c>
       <c r="E10">
-        <v>6.3746153846153796E-3</v>
+        <v>0.29523384615384601</v>
       </c>
       <c r="F10">
-        <v>0.24672384615384599</v>
+        <v>0.25442307692307597</v>
       </c>
       <c r="G10">
-        <v>0.15282051282051201</v>
+        <v>0.149153846153846</v>
       </c>
       <c r="H10">
-        <v>0.113132352941176</v>
+        <v>0.117886974789915</v>
       </c>
       <c r="I10">
-        <v>3.9376700191571003E-2</v>
+        <v>3.70519276819921E-2</v>
       </c>
       <c r="J10">
-        <v>0.12075238095238</v>
+        <v>0.16759206349206299</v>
       </c>
       <c r="K10">
-        <v>4.9493076923076799E-2</v>
+        <v>8.0731538461538493E-2</v>
       </c>
       <c r="L10">
-        <v>0.10930494505494399</v>
+        <v>0.109458791208791</v>
       </c>
       <c r="M10">
-        <v>0.120085714285714</v>
+        <v>0.14894047619047601</v>
       </c>
       <c r="N10">
-        <v>0.14193589743589699</v>
+        <v>0.155944055944055</v>
       </c>
       <c r="O10">
-        <v>0.157783552631579</v>
+        <v>0.19385869883040899</v>
       </c>
       <c r="P10">
-        <v>5.0574999999999898E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="Q10">
-        <v>0.177289999999999</v>
+        <v>0.170453999999999</v>
       </c>
       <c r="R10">
-        <v>3.8384615384615399E-2</v>
+        <v>0.10470814479638001</v>
       </c>
       <c r="S10">
-        <v>0.101024999999999</v>
+        <v>8.2399999999999904E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1511,58 +1511,58 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.7680262249827298E-2</v>
+        <v>3.2952242926155798E-2</v>
       </c>
       <c r="C11">
-        <v>5.4995927318295702E-2</v>
+        <v>6.6781328320801997E-2</v>
       </c>
       <c r="D11">
-        <v>3.7761627906976701E-2</v>
+        <v>4.80552325581396E-2</v>
       </c>
       <c r="E11">
-        <v>0.224281538461538</v>
+        <v>0.140573076923076</v>
       </c>
       <c r="F11">
-        <v>0.24650307692307699</v>
+        <v>0.24375384615384599</v>
       </c>
       <c r="G11">
-        <v>0.15051282051282</v>
+        <v>0.19758974358974299</v>
       </c>
       <c r="H11">
-        <v>0.111740336134453</v>
+        <v>0.137604201680672</v>
       </c>
       <c r="I11">
-        <v>3.42233477011493E-2</v>
+        <v>3.8228172892720298E-2</v>
       </c>
       <c r="J11">
-        <v>0.15893809523809499</v>
+        <v>0.187947619047619</v>
       </c>
       <c r="K11">
-        <v>4.7513076923076901E-2</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="L11">
-        <v>9.86670329670329E-2</v>
+        <v>0.110611263736263</v>
       </c>
       <c r="M11">
-        <v>0.11630238095238001</v>
+        <v>0.13890238095238</v>
       </c>
       <c r="N11">
-        <v>0.18053030303030199</v>
+        <v>0.171207459207459</v>
       </c>
       <c r="O11">
-        <v>0.15577532894736801</v>
+        <v>0.15776184210526301</v>
       </c>
       <c r="P11">
-        <v>4.7274999999999803E-2</v>
+        <v>4.1299999999999802E-2</v>
       </c>
       <c r="Q11">
-        <v>0.16311800000000001</v>
+        <v>0.17095399999999999</v>
       </c>
       <c r="R11">
-        <v>4.8615384615384602E-2</v>
+        <v>3.2115384615384698E-2</v>
       </c>
       <c r="S11">
-        <v>4.4049999999999902E-2</v>
+        <v>5.4574999999999901E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1570,58 +1570,58 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.0750517598343598E-2</v>
+        <v>3.18411318150447E-2</v>
       </c>
       <c r="C12">
-        <v>4.8816416040100299E-2</v>
+        <v>6.5572055137844601E-2</v>
       </c>
       <c r="D12">
-        <v>5.2023255813953298E-2</v>
+        <v>3.5979651162790699E-2</v>
       </c>
       <c r="E12">
-        <v>0.149483076923076</v>
+        <v>7.5453846153846205E-2</v>
       </c>
       <c r="F12">
-        <v>0.25046307692307701</v>
+        <v>0.241887692307692</v>
       </c>
       <c r="G12">
-        <v>0.14105128205128201</v>
+        <v>0.14548717948717901</v>
       </c>
       <c r="H12">
-        <v>0.124426470588235</v>
+        <v>0.128058823529411</v>
       </c>
       <c r="I12">
-        <v>3.6936206896551797E-2</v>
+        <v>3.48690373563217E-2</v>
       </c>
       <c r="J12">
-        <v>0.15280952380952301</v>
+        <v>0.190388888888888</v>
       </c>
       <c r="K12">
-        <v>1.50638461538461E-2</v>
+        <v>1.9023846153845999E-2</v>
       </c>
       <c r="L12">
-        <v>9.6437637362637205E-2</v>
+        <v>9.7453021978021803E-2</v>
       </c>
       <c r="M12">
-        <v>0.12937619047619001</v>
+        <v>0.14633571428571401</v>
       </c>
       <c r="N12">
-        <v>0.142813519813519</v>
+        <v>0.160128205128205</v>
       </c>
       <c r="O12">
-        <v>0.156687171052631</v>
+        <v>0.15364769736841999</v>
       </c>
       <c r="P12">
-        <v>5.0574999999999801E-2</v>
+        <v>4.0050000000000002E-2</v>
       </c>
       <c r="Q12">
-        <v>0.17352799999999999</v>
+        <v>0.16713999999999901</v>
       </c>
       <c r="R12">
-        <v>3.8708144796380101E-2</v>
+        <v>4.06923076923075E-2</v>
       </c>
       <c r="S12">
-        <v>3.44249999999999E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1629,58 +1629,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.0426846100758902E-2</v>
+        <v>2.7921946169772199E-2</v>
       </c>
       <c r="C13">
-        <v>6.6487155388470998E-2</v>
+        <v>4.6777255639097702E-2</v>
       </c>
       <c r="D13">
-        <v>4.29912790697674E-2</v>
+        <v>4.6116279069767403E-2</v>
       </c>
       <c r="E13">
-        <v>4.6153846153846097E-3</v>
+        <v>0.18490230769230701</v>
       </c>
       <c r="F13">
-        <v>0.233853846153846</v>
+        <v>0.241887692307692</v>
       </c>
       <c r="G13">
-        <v>0.19971794871794801</v>
+        <v>0.15128205128205099</v>
       </c>
       <c r="H13">
-        <v>0.12631428571428499</v>
+        <v>0.118573949579831</v>
       </c>
       <c r="I13">
-        <v>2.98376317049809E-2</v>
+        <v>3.2311661877394503E-2</v>
       </c>
       <c r="J13">
-        <v>0.15876984126984101</v>
+        <v>0.15893809523809499</v>
       </c>
       <c r="K13">
-        <v>6.4122307692307701E-2</v>
+        <v>1.6053846153846099E-2</v>
       </c>
       <c r="L13">
-        <v>9.6160714285714197E-2</v>
+        <v>0.10586153846153799</v>
       </c>
       <c r="M13">
-        <v>0.12186190476190401</v>
+        <v>0.130583333333333</v>
       </c>
       <c r="N13">
-        <v>0.15751165501165401</v>
+        <v>0.17180303030303001</v>
       </c>
       <c r="O13">
-        <v>0.202072258771929</v>
+        <v>0.18862646198830399</v>
       </c>
       <c r="P13">
-        <v>5.9049999999999998E-2</v>
+        <v>4.3974999999999799E-2</v>
       </c>
       <c r="Q13">
-        <v>0.17436199999999999</v>
+        <v>0.183532</v>
       </c>
       <c r="R13">
-        <v>5.5977375565610901E-2</v>
+        <v>0.109884615384615</v>
       </c>
       <c r="S13">
-        <v>5.5474999999999899E-2</v>
+        <v>5.6724999999999901E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1688,58 +1688,58 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.0709523809523701E-2</v>
+        <v>3.1882125603864601E-2</v>
       </c>
       <c r="C14">
-        <v>6.4781328320801995E-2</v>
+        <v>5.0118734335839701E-2</v>
       </c>
       <c r="D14">
-        <v>3.9220930232558002E-2</v>
+        <v>4.5438953488372E-2</v>
       </c>
       <c r="E14">
-        <v>0.27598230769230703</v>
+        <v>0.237151538461538</v>
       </c>
       <c r="F14">
-        <v>0.232863846153846</v>
+        <v>0.256844615384615</v>
       </c>
       <c r="G14">
-        <v>0.170384615384615</v>
+        <v>0.15205128205128199</v>
       </c>
       <c r="H14">
-        <v>0.111426050420168</v>
+        <v>0.13104453781512501</v>
       </c>
       <c r="I14">
-        <v>3.5326137452107297E-2</v>
+        <v>4.25030172413794E-2</v>
       </c>
       <c r="J14">
-        <v>0.18422698412698399</v>
+        <v>0.15122698412698399</v>
       </c>
       <c r="K14">
-        <v>0.14453307692307599</v>
+        <v>6.2911538461538699E-2</v>
       </c>
       <c r="L14">
-        <v>0.11051895604395499</v>
+        <v>8.8859890109889997E-2</v>
       </c>
       <c r="M14">
-        <v>0.144559523809523</v>
+        <v>0.15037142857142799</v>
       </c>
       <c r="N14">
-        <v>0.14983333333333301</v>
+        <v>0.170784382284382</v>
       </c>
       <c r="O14">
-        <v>0.156719736842105</v>
+        <v>0.15779440789473601</v>
       </c>
       <c r="P14">
-        <v>3.8800000000000001E-2</v>
+        <v>5.2449999999999899E-2</v>
       </c>
       <c r="Q14">
-        <v>0.17041199999999901</v>
+        <v>0.16366</v>
       </c>
       <c r="R14">
-        <v>4.06923076923075E-2</v>
+        <v>4.4977375565610898E-2</v>
       </c>
       <c r="S14">
-        <v>5.3949999999999901E-2</v>
+        <v>4.4674999999999902E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1747,58 +1747,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.0709523809523701E-2</v>
+        <v>3.0426846100758902E-2</v>
       </c>
       <c r="C15">
-        <v>5.0847431077694301E-2</v>
+        <v>5.2956766917293299E-2</v>
       </c>
       <c r="D15">
-        <v>3.6188953488371998E-2</v>
+        <v>3.7648255813953403E-2</v>
       </c>
       <c r="E15">
-        <v>0.203712307692307</v>
+        <v>0.16631307692307701</v>
       </c>
       <c r="F15">
-        <v>0.25332615384615298</v>
+        <v>0.25244307692307599</v>
       </c>
       <c r="G15">
-        <v>0.180025641025641</v>
+        <v>0.15128205128205099</v>
       </c>
       <c r="H15">
-        <v>0.111268907563025</v>
+        <v>0.135289495798319</v>
       </c>
       <c r="I15">
-        <v>3.7230064655172299E-2</v>
+        <v>3.80356800766284E-2</v>
       </c>
       <c r="J15">
-        <v>0.17149841269841201</v>
+        <v>0.113209523809523</v>
       </c>
       <c r="K15">
-        <v>5.9172307692307601E-2</v>
+        <v>3.9593076923076898E-2</v>
       </c>
       <c r="L15">
-        <v>8.2971703296703198E-2</v>
+        <v>9.6714560439560296E-2</v>
       </c>
       <c r="M15">
-        <v>0.125535714285714</v>
+        <v>0.14856666666666599</v>
       </c>
       <c r="N15">
-        <v>0.15199533799533799</v>
+        <v>0.172742424242424</v>
       </c>
       <c r="O15">
-        <v>0.189701133040935</v>
+        <v>0.15775098684210501</v>
       </c>
       <c r="P15">
-        <v>5.5125E-2</v>
+        <v>5.6375000000000001E-2</v>
       </c>
       <c r="Q15">
-        <v>0.174653999999999</v>
+        <v>0.175008</v>
       </c>
       <c r="R15">
-        <v>4.10158371040725E-2</v>
+        <v>0.26141855203619901</v>
       </c>
       <c r="S15">
-        <v>5.33249999999999E-2</v>
+        <v>5.4574999999999901E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1806,58 +1806,58 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.6669841269841297E-2</v>
+        <v>3.5457142857142701E-2</v>
       </c>
       <c r="C16">
-        <v>6.43778195488722E-2</v>
+        <v>5.6461466165413601E-2</v>
       </c>
       <c r="D16">
-        <v>4.2834302325581303E-2</v>
+        <v>4.3616279069767401E-2</v>
       </c>
       <c r="E16">
-        <v>0.21361230769230699</v>
+        <v>0.17720307692307599</v>
       </c>
       <c r="F16">
-        <v>0.24969384615384599</v>
+        <v>0.255192307692307</v>
       </c>
       <c r="G16">
-        <v>0.170384615384615</v>
+        <v>0.13815384615384599</v>
       </c>
       <c r="H16">
-        <v>0.128907142857142</v>
+        <v>0.123838235294117</v>
       </c>
       <c r="I16">
-        <v>3.2592349137931E-2</v>
+        <v>3.8630591475095698E-2</v>
       </c>
       <c r="J16">
-        <v>0.12482698412698399</v>
+        <v>0.163871428571428</v>
       </c>
       <c r="K16">
-        <v>1.50638461538461E-2</v>
+        <v>1.9023846153845999E-2</v>
       </c>
       <c r="L16">
-        <v>8.4524175824175707E-2</v>
+        <v>9.7299175824175702E-2</v>
       </c>
       <c r="M16">
-        <v>0.12543809523809499</v>
+        <v>0.134423809523809</v>
       </c>
       <c r="N16">
-        <v>0.15909440559440499</v>
+        <v>0.151479020979021</v>
       </c>
       <c r="O16">
-        <v>0.19472711988304001</v>
+        <v>0.15768585526315801</v>
       </c>
       <c r="P16">
-        <v>5.2449999999999899E-2</v>
+        <v>4.9149999999999999E-2</v>
       </c>
       <c r="Q16">
-        <v>0.171151999999999</v>
+        <v>0.170652</v>
       </c>
       <c r="R16">
-        <v>3.9923076923076797E-2</v>
+        <v>4.3884615384615397E-2</v>
       </c>
       <c r="S16">
-        <v>6.5100000000000005E-2</v>
+        <v>5.3949999999999901E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1865,58 +1865,58 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.85077984817113E-2</v>
+        <v>2.7942443064182001E-2</v>
       </c>
       <c r="C17">
-        <v>5.5026942355889799E-2</v>
+        <v>5.4995927318295702E-2</v>
       </c>
       <c r="D17">
-        <v>3.3781976744185899E-2</v>
+        <v>3.46162790697674E-2</v>
       </c>
       <c r="E17">
-        <v>8.3546153846152695E-3</v>
+        <v>0.24683076923076899</v>
       </c>
       <c r="F17">
-        <v>0.248483076923076</v>
+        <v>0.242543076923077</v>
       </c>
       <c r="G17">
-        <v>0.15051282051282</v>
+        <v>0.21302564102564001</v>
       </c>
       <c r="H17">
-        <v>0.126157142857142</v>
+        <v>0.12436806722689001</v>
       </c>
       <c r="I17">
-        <v>2.8595282567049699E-2</v>
+        <v>4.0364140325670303E-2</v>
       </c>
       <c r="J17">
-        <v>0.17976507936507899</v>
+        <v>0.16703650793650701</v>
       </c>
       <c r="K17">
-        <v>5.4222307692307598E-2</v>
+        <v>0.14178384615384601</v>
       </c>
       <c r="L17">
-        <v>0.110395879120878</v>
+        <v>0.113486813186813</v>
       </c>
       <c r="M17">
-        <v>0.13018095238095201</v>
+        <v>0.119557142857143</v>
       </c>
       <c r="N17">
-        <v>0.159783216783216</v>
+        <v>0.166975524475524</v>
       </c>
       <c r="O17">
-        <v>0.207199817251461</v>
+        <v>0.19077580409356701</v>
       </c>
       <c r="P17">
-        <v>4.0050000000000002E-2</v>
+        <v>4.3974999999999799E-2</v>
       </c>
       <c r="Q17">
-        <v>0.163024</v>
+        <v>0.16614999999999899</v>
       </c>
       <c r="R17">
-        <v>5.0153846153846202E-2</v>
+        <v>4.0692307692307798E-2</v>
       </c>
       <c r="S17">
-        <v>0.103174999999999</v>
+        <v>5.5199999999999902E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1924,58 +1924,58 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.9295238095237999E-2</v>
+        <v>3.18411318150447E-2</v>
       </c>
       <c r="C18">
-        <v>5.3321115288220498E-2</v>
+        <v>6.7487155388471207E-2</v>
       </c>
       <c r="D18">
-        <v>3.5668604651162603E-2</v>
+        <v>3.2156976744185897E-2</v>
       </c>
       <c r="E18">
-        <v>6.7533846153846194E-2</v>
+        <v>7.2483846153846093E-2</v>
       </c>
       <c r="F18">
-        <v>0.241887692307692</v>
+        <v>0.24617538461538399</v>
       </c>
       <c r="G18">
-        <v>0.14548717948717901</v>
+        <v>0.21882051282051199</v>
       </c>
       <c r="H18">
-        <v>0.106749999999999</v>
+        <v>0.12095126050420101</v>
       </c>
       <c r="I18">
-        <v>2.6150909961685599E-2</v>
+        <v>3.5594995210727898E-2</v>
       </c>
       <c r="J18">
-        <v>0.13228571428571401</v>
+        <v>0.18730793650793601</v>
       </c>
       <c r="K18">
-        <v>3.1673076923076901E-2</v>
+        <v>1.7043846153846E-2</v>
       </c>
       <c r="L18">
-        <v>9.4392857142857001E-2</v>
+        <v>9.9251648351648306E-2</v>
       </c>
       <c r="M18">
-        <v>0.13011190476190401</v>
+        <v>0.13015238095238099</v>
       </c>
       <c r="N18">
-        <v>0.172115384615384</v>
+        <v>0.16865268065267999</v>
       </c>
       <c r="O18">
-        <v>0.20829232456140301</v>
+        <v>0.156687171052631</v>
       </c>
       <c r="P18">
-        <v>5.9224999999999903E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="Q18">
-        <v>0.17821799999999899</v>
+        <v>0.166545999999999</v>
       </c>
       <c r="R18">
-        <v>3.94773755656109E-2</v>
+        <v>5.41153846153846E-2</v>
       </c>
       <c r="S18">
-        <v>8.1774999999999903E-2</v>
+        <v>4.4674999999999902E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1983,58 +1983,58 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.85077984817113E-2</v>
+        <v>3.2144306418219297E-2</v>
       </c>
       <c r="C19">
         <v>6.6145676691729202E-2</v>
       </c>
       <c r="D19">
-        <v>4.97412790697674E-2</v>
+        <v>4.7688953488372203E-2</v>
       </c>
       <c r="E19">
-        <v>0.24188076923076901</v>
+        <v>0.15443307692307601</v>
       </c>
       <c r="F19">
-        <v>0.24661692307692301</v>
+        <v>0.25541307692307602</v>
       </c>
       <c r="G19">
-        <v>0.156487179487179</v>
+        <v>0.25915384615384601</v>
       </c>
       <c r="H19">
-        <v>0.119911764705882</v>
+        <v>0.12674537815126</v>
       </c>
       <c r="I19">
-        <v>4.1477191091954101E-2</v>
+        <v>3.7577825670498097E-2</v>
       </c>
       <c r="J19">
-        <v>0.145401587301587</v>
+        <v>0.15838253968253899</v>
       </c>
       <c r="K19">
-        <v>4.7513076923076901E-2</v>
+        <v>7.1821538461538506E-2</v>
       </c>
       <c r="L19">
-        <v>0.10071181318681301</v>
+        <v>9.9282417582417501E-2</v>
       </c>
       <c r="M19">
-        <v>0.14385238095238001</v>
+        <v>0.14994047619047601</v>
       </c>
       <c r="N19">
-        <v>0.14088578088577999</v>
+        <v>0.15534965034965001</v>
       </c>
       <c r="O19">
-        <v>0.19380442251461899</v>
+        <v>0.15676315789473599</v>
       </c>
       <c r="P19">
-        <v>5.9049999999999998E-2</v>
+        <v>5.1025000000000001E-2</v>
       </c>
       <c r="Q19">
-        <v>0.16970399999999999</v>
+        <v>0.173434</v>
       </c>
       <c r="R19">
-        <v>5.41153846153846E-2</v>
+        <v>3.9153846153845998E-2</v>
       </c>
       <c r="S19">
-        <v>5.1799999999999902E-2</v>
+        <v>4.4049999999999902E-2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2042,58 +2042,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.04063492063491E-2</v>
+        <v>3.0730020703933599E-2</v>
       </c>
       <c r="C20">
-        <v>5.4693609022556502E-2</v>
+        <v>5.1685463659147703E-2</v>
       </c>
       <c r="D20">
-        <v>5.1459302325581303E-2</v>
+        <v>3.9334302325581397E-2</v>
       </c>
       <c r="E20">
-        <v>0.16631307692307701</v>
+        <v>0.14552307692307601</v>
       </c>
       <c r="F20">
-        <v>0.242436153846153</v>
+        <v>0.25695153846153801</v>
       </c>
       <c r="G20">
-        <v>0.14761538461538401</v>
+        <v>0.15861538461538399</v>
       </c>
       <c r="H20">
-        <v>0.13277521008403301</v>
+        <v>0.120499999999999</v>
       </c>
       <c r="I20">
-        <v>3.5071228448275801E-2</v>
+        <v>3.2771455938697298E-2</v>
       </c>
       <c r="J20">
-        <v>0.160268253968253</v>
+        <v>0.188250793650793</v>
       </c>
       <c r="K20">
-        <v>1.50638461538461E-2</v>
+        <v>1.90238461538462E-2</v>
       </c>
       <c r="L20">
-        <v>9.6622252747252599E-2</v>
+        <v>0.110918956043956</v>
       </c>
       <c r="M20">
-        <v>0.14015</v>
+        <v>0.139707142857142</v>
       </c>
       <c r="N20">
-        <v>0.17717715617715599</v>
+        <v>0.16484498834498801</v>
       </c>
       <c r="O20">
-        <v>0.198724963450292</v>
+        <v>0.20094331140350799</v>
       </c>
       <c r="P20">
-        <v>5.30749999999999E-2</v>
+        <v>4.7274999999999998E-2</v>
       </c>
       <c r="Q20">
-        <v>0.17169400000000001</v>
+        <v>0.17321600000000001</v>
       </c>
       <c r="R20">
-        <v>3.9923076923076797E-2</v>
+        <v>5.33461538461538E-2</v>
       </c>
       <c r="S20">
-        <v>0.10164999999999901</v>
+        <v>9.2374999999999902E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2104,55 +2104,55 @@
         <v>2.9295238095237999E-2</v>
       </c>
       <c r="C21">
-        <v>5.05614035087718E-2</v>
+        <v>5.8097117794486203E-2</v>
       </c>
       <c r="D21">
-        <v>4.2459302325581399E-2</v>
+        <v>3.3938953488372003E-2</v>
       </c>
       <c r="E21">
-        <v>0.23517153846153799</v>
+        <v>6.9513846153846204E-2</v>
       </c>
       <c r="F21">
-        <v>0.25343307692307598</v>
+        <v>0.24353307692307699</v>
       </c>
       <c r="G21">
-        <v>0.188717948717948</v>
+        <v>0.18369230769230699</v>
       </c>
       <c r="H21">
-        <v>0.123838235294117</v>
+        <v>0.111720168067226</v>
       </c>
       <c r="I21">
-        <v>3.6299030172413697E-2</v>
+        <v>2.6770629789271898E-2</v>
       </c>
       <c r="J21">
-        <v>0.14501428571428501</v>
+        <v>0.15280952380952301</v>
       </c>
       <c r="K21">
-        <v>3.7613076923076798E-2</v>
+        <v>4.4543076923076901E-2</v>
       </c>
       <c r="L21">
-        <v>0.100342582417582</v>
+        <v>0.10065027472527401</v>
       </c>
       <c r="M21">
-        <v>0.126035714285714</v>
+        <v>0.14322619047619001</v>
       </c>
       <c r="N21">
-        <v>0.167509324009324</v>
+        <v>0.16268298368298301</v>
       </c>
       <c r="O21">
-        <v>0.15880394736842099</v>
+        <v>0.191698501461988</v>
       </c>
       <c r="P21">
-        <v>4.4424999999999999E-2</v>
+        <v>5.3699999999999803E-2</v>
       </c>
       <c r="Q21">
-        <v>0.173819999999999</v>
+        <v>0.17094400000000001</v>
       </c>
       <c r="R21">
-        <v>4.06923076923075E-2</v>
+        <v>5.48846153846154E-2</v>
       </c>
       <c r="S21">
-        <v>5.5199999999999902E-2</v>
+        <v>8.4274999999999906E-2</v>
       </c>
     </row>
   </sheetData>
